--- a/40 課題管理表/課題管理表_1220.xlsx
+++ b/40 課題管理表/課題管理表_1220.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -790,53 +790,6 @@
     </rPh>
     <rPh sb="67" eb="69">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>交通宿泊登録　入力項目に宿泊取消料がない。
-Nozomi連携には、宿泊取消料があるので、入力は必要？</t>
-    <rPh sb="0" eb="2">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1471,6 +1424,147 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1480,6 +1574,123 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="5" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1489,39 +1700,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1533,237 +1717,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="5" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2500,10 +2453,10 @@
   <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="41" ySplit="7" topLeftCell="AP14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="41" ySplit="7" topLeftCell="AP15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6:AO6"/>
+      <selection pane="bottomRight" activeCell="AB22" sqref="AB22:AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -2515,1199 +2468,1193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="13.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="35" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38" t="s">
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="38"/>
+      <c r="AO1" s="54"/>
     </row>
     <row r="2" spans="1:41" ht="11.25" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="51">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="33">
         <v>41617</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="51">
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="33">
         <v>41628</v>
       </c>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
     </row>
     <row r="3" spans="1:41" ht="11.25" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
     </row>
     <row r="4" spans="1:41" ht="13.5" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
     </row>
     <row r="5" spans="1:41" s="2" customFormat="1"/>
     <row r="6" spans="1:41" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="48" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="61"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="9"/>
     </row>
     <row r="7" spans="1:41" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="83" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="60" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="48" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="62" t="s">
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="60" t="s">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="61"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="9"/>
     </row>
     <row r="8" spans="1:41" s="2" customFormat="1" ht="240.75" customHeight="1">
-      <c r="A8" s="86">
+      <c r="A8" s="4">
         <f t="shared" ref="A8:A25" si="0">ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="64">
         <v>41617</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="87">
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="64">
         <v>41620</v>
       </c>
-      <c r="W8" s="88"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="96" t="s">
+      <c r="W8" s="65"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99" t="s">
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="100"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="100"/>
-      <c r="AN8" s="100"/>
-      <c r="AO8" s="101"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="78"/>
     </row>
     <row r="9" spans="1:41" s="2" customFormat="1" ht="42.75" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="89">
         <v>41617</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="25" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="34"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="50"/>
     </row>
     <row r="10" spans="1:41" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="83">
         <v>41617</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="25" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="34"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="50"/>
     </row>
     <row r="11" spans="1:41" s="2" customFormat="1" ht="60.75" customHeight="1">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="83">
         <v>41619</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="34"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="50"/>
     </row>
     <row r="12" spans="1:41" s="2" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="83">
         <v>41619</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="25" t="s">
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="26"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="88"/>
     </row>
     <row r="13" spans="1:41" s="2" customFormat="1" ht="131.25" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="83">
         <v>41626</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="25" t="s">
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="34"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="50"/>
     </row>
     <row r="14" spans="1:41" s="2" customFormat="1" ht="64.5" customHeight="1">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="83">
         <v>41626</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="25" t="s">
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="31"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="91"/>
     </row>
     <row r="15" spans="1:41" s="2" customFormat="1" ht="54.75" customHeight="1">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="83">
         <v>41628</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="25" t="s">
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="9"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="95"/>
     </row>
     <row r="16" spans="1:41" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="83">
         <v>41628</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="10" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="9"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="95"/>
     </row>
     <row r="17" spans="1:41" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="20">
-        <v>41628</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="9"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="95"/>
     </row>
     <row r="18" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="9"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="95"/>
     </row>
     <row r="19" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="9"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="95"/>
     </row>
     <row r="20" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="9"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="95"/>
     </row>
     <row r="21" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="9"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="95"/>
     </row>
     <row r="22" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="9"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="94"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="95"/>
     </row>
     <row r="23" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="9"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="95"/>
     </row>
     <row r="24" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="9"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="95"/>
     </row>
     <row r="25" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="9"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="94"/>
+      <c r="AI25" s="94"/>
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="94"/>
+      <c r="AO25" s="95"/>
     </row>
     <row r="26" spans="1:41" ht="45.75" customHeight="1"/>
     <row r="27" spans="1:41" ht="45.75" customHeight="1"/>
@@ -3716,19 +3663,103 @@
     <row r="30" spans="1:41" ht="45.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AO7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="A2:K4"/>
-    <mergeCell ref="L2:Q4"/>
-    <mergeCell ref="R2:U4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:U7"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AO25"/>
+    <mergeCell ref="H25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AO22"/>
+    <mergeCell ref="H24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AO21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AO23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AO24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AO18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AO20"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AO19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="H20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="AB16:AO16"/>
+    <mergeCell ref="AB17:AO17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="H17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AO14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AO15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:U15"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AO11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AO13"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AO12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:U12"/>
+    <mergeCell ref="H11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="AB10:AO10"/>
     <mergeCell ref="AB9:AO9"/>
@@ -3753,103 +3784,19 @@
     <mergeCell ref="AA2:AD4"/>
     <mergeCell ref="AE2:AI4"/>
     <mergeCell ref="V6:AO6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AO11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AO13"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AO12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:U12"/>
-    <mergeCell ref="H11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AO15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:U15"/>
-    <mergeCell ref="H18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="AB16:AO16"/>
-    <mergeCell ref="AB17:AO17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="H17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AO24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AO18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AO20"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AO19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="H20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AO23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AO25"/>
-    <mergeCell ref="H25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AO22"/>
-    <mergeCell ref="H24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AO21"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AO7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="A2:K4"/>
+    <mergeCell ref="L2:Q4"/>
+    <mergeCell ref="R2:U4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:U7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.39370078740157483"/>

--- a/40 課題管理表/課題管理表_1220.xlsx
+++ b/40 課題管理表/課題管理表_1220.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -843,6 +843,53 @@
   <si>
     <t>取消料欄不要。
 宿泊費・交通費にまとめて入力します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参加者一覧.CSVについて
+　　タクチケ実車料金は、請求不可の料金(利用日 &lt;&gt; 実車日)も
+　　ＣＳＶに出力しますか？
+    </t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>リヨウビ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1441,6 +1488,198 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1450,6 +1689,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="3" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="3" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="5" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1459,332 +1824,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="3" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="3" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="5" borderId="3" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="5" borderId="7" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2521,10 +2568,10 @@
   <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="41" ySplit="7" topLeftCell="AP14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="41" ySplit="7" topLeftCell="AP15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20:U20"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17:AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -2536,1205 +2583,1211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="13.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="70" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="70" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="69" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="69" t="s">
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69" t="s">
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="69"/>
+      <c r="AO1" s="43"/>
     </row>
     <row r="2" spans="1:41" ht="11.25" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="90" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="36">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="31">
         <v>41617</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="36">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="31">
         <v>41628</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
     </row>
     <row r="3" spans="1:41" ht="11.25" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
     </row>
     <row r="4" spans="1:41" ht="13.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
     </row>
     <row r="5" spans="1:41" s="2" customFormat="1"/>
     <row r="6" spans="1:41" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="54" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="56"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="12"/>
     </row>
     <row r="7" spans="1:41" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="99" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="54" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="67" t="s">
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="55" t="s">
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="56"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="12"/>
     </row>
     <row r="8" spans="1:41" s="2" customFormat="1" ht="240.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" ref="A8:A25" si="0">ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="53">
         <v>41617</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63" t="s">
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="57">
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="53">
         <v>41620</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="73" t="s">
+      <c r="W8" s="54"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="76" t="s">
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="78"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="61"/>
     </row>
     <row r="9" spans="1:41" s="2" customFormat="1" ht="42.75" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="75">
         <v>41617</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="35"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="68"/>
     </row>
     <row r="10" spans="1:41" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="62">
         <v>41617</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="35"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="68"/>
     </row>
     <row r="11" spans="1:41" s="2" customFormat="1" ht="60.75" customHeight="1">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="62">
         <v>41619</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
     </row>
     <row r="12" spans="1:41" s="2" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="62">
         <v>41619</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="26" t="s">
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="27"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="74"/>
     </row>
     <row r="13" spans="1:41" s="2" customFormat="1" ht="131.25" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="62">
         <v>41626</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="26" t="s">
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="35"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="68"/>
     </row>
     <row r="14" spans="1:41" s="2" customFormat="1" ht="64.5" customHeight="1">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="62">
         <v>41626</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="95"/>
     </row>
     <row r="15" spans="1:41" s="2" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A15" s="102">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="91">
         <v>41628</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="109" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="103">
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="91">
         <v>41628</v>
       </c>
-      <c r="W15" s="104"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="112" t="s">
+      <c r="W15" s="92"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="115" t="s">
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="116"/>
-      <c r="AO15" s="117"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="100"/>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="100"/>
+      <c r="AM15" s="100"/>
+      <c r="AN15" s="100"/>
+      <c r="AO15" s="101"/>
     </row>
     <row r="16" spans="1:41" s="2" customFormat="1" ht="33" customHeight="1">
-      <c r="A16" s="102">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="91">
         <v>41628</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="110" t="s">
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="103">
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="91">
         <v>41628</v>
       </c>
-      <c r="W16" s="104"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="112" t="s">
+      <c r="W16" s="92"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="115" t="s">
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="117"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="100"/>
+      <c r="AL16" s="100"/>
+      <c r="AM16" s="100"/>
+      <c r="AN16" s="100"/>
+      <c r="AO16" s="101"/>
     </row>
-    <row r="17" spans="1:41" s="2" customFormat="1" ht="33" customHeight="1">
+    <row r="17" spans="1:41" s="2" customFormat="1" ht="69" customHeight="1">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="10"/>
+      <c r="B17" s="62">
+        <v>41634</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="115"/>
+      <c r="AJ17" s="115"/>
+      <c r="AK17" s="115"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="116"/>
     </row>
-    <row r="18" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:41" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="10"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="115"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="115"/>
+      <c r="AF18" s="115"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="115"/>
+      <c r="AJ18" s="115"/>
+      <c r="AK18" s="115"/>
+      <c r="AL18" s="115"/>
+      <c r="AM18" s="115"/>
+      <c r="AN18" s="115"/>
+      <c r="AO18" s="116"/>
     </row>
     <row r="19" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="10"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="115"/>
+      <c r="AD19" s="115"/>
+      <c r="AE19" s="115"/>
+      <c r="AF19" s="115"/>
+      <c r="AG19" s="115"/>
+      <c r="AH19" s="115"/>
+      <c r="AI19" s="115"/>
+      <c r="AJ19" s="115"/>
+      <c r="AK19" s="115"/>
+      <c r="AL19" s="115"/>
+      <c r="AM19" s="115"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="116"/>
     </row>
     <row r="20" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="10"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="115"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="115"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="116"/>
     </row>
     <row r="21" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="10"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="115"/>
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="115"/>
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="115"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="115"/>
+      <c r="AJ21" s="115"/>
+      <c r="AK21" s="115"/>
+      <c r="AL21" s="115"/>
+      <c r="AM21" s="115"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="116"/>
     </row>
     <row r="22" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="10"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="115"/>
+      <c r="AD22" s="115"/>
+      <c r="AE22" s="115"/>
+      <c r="AF22" s="115"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="115"/>
+      <c r="AJ22" s="115"/>
+      <c r="AK22" s="115"/>
+      <c r="AL22" s="115"/>
+      <c r="AM22" s="115"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="116"/>
     </row>
     <row r="23" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="10"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="115"/>
+      <c r="AD23" s="115"/>
+      <c r="AE23" s="115"/>
+      <c r="AF23" s="115"/>
+      <c r="AG23" s="115"/>
+      <c r="AH23" s="115"/>
+      <c r="AI23" s="115"/>
+      <c r="AJ23" s="115"/>
+      <c r="AK23" s="115"/>
+      <c r="AL23" s="115"/>
+      <c r="AM23" s="115"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="116"/>
     </row>
     <row r="24" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="10"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="115"/>
+      <c r="AD24" s="115"/>
+      <c r="AE24" s="115"/>
+      <c r="AF24" s="115"/>
+      <c r="AG24" s="115"/>
+      <c r="AH24" s="115"/>
+      <c r="AI24" s="115"/>
+      <c r="AJ24" s="115"/>
+      <c r="AK24" s="115"/>
+      <c r="AL24" s="115"/>
+      <c r="AM24" s="115"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="116"/>
     </row>
     <row r="25" spans="1:41" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="10"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="114"/>
+      <c r="AC25" s="115"/>
+      <c r="AD25" s="115"/>
+      <c r="AE25" s="115"/>
+      <c r="AF25" s="115"/>
+      <c r="AG25" s="115"/>
+      <c r="AH25" s="115"/>
+      <c r="AI25" s="115"/>
+      <c r="AJ25" s="115"/>
+      <c r="AK25" s="115"/>
+      <c r="AL25" s="115"/>
+      <c r="AM25" s="115"/>
+      <c r="AN25" s="115"/>
+      <c r="AO25" s="116"/>
     </row>
     <row r="26" spans="1:41" ht="45.75" customHeight="1"/>
     <row r="27" spans="1:41" ht="45.75" customHeight="1"/>
@@ -3743,84 +3796,38 @@
     <row r="30" spans="1:41" ht="45.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="A2:K4"/>
-    <mergeCell ref="L2:Q4"/>
-    <mergeCell ref="R2:U4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:U7"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="V2:Z4"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AO8"/>
-    <mergeCell ref="AB7:AO7"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AJ2:AK4"/>
-    <mergeCell ref="AL2:AM4"/>
-    <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AB10:AO10"/>
-    <mergeCell ref="AB9:AO9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="AA2:AD4"/>
-    <mergeCell ref="AE2:AI4"/>
-    <mergeCell ref="V6:AO6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:U10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:U8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:U12"/>
-    <mergeCell ref="H11:U11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AO11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AO12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AO13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AO15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:U15"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="AB25:AO25"/>
+    <mergeCell ref="H25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AO23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AO18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AO20"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AO19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AO22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="H22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="H24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="H21:U21"/>
     <mergeCell ref="V21:X21"/>
     <mergeCell ref="B19:D19"/>
@@ -3845,38 +3852,84 @@
     <mergeCell ref="V19:X19"/>
     <mergeCell ref="H20:U20"/>
     <mergeCell ref="V23:X23"/>
-    <mergeCell ref="H22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="H24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AO25"/>
-    <mergeCell ref="H25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AO23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AO18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AO20"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AO19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AO22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AO14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AO13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AO15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:U15"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:U12"/>
+    <mergeCell ref="H11:U11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AO11"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AO12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="H9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="AA2:AD4"/>
+    <mergeCell ref="AE2:AI4"/>
+    <mergeCell ref="V6:AO6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:U10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:U8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="V2:Z4"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AO8"/>
+    <mergeCell ref="AB7:AO7"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AJ2:AK4"/>
+    <mergeCell ref="AL2:AM4"/>
+    <mergeCell ref="AN2:AO4"/>
+    <mergeCell ref="AB10:AO10"/>
+    <mergeCell ref="AB9:AO9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="A2:K4"/>
+    <mergeCell ref="L2:Q4"/>
+    <mergeCell ref="R2:U4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:U7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.39370078740157483"/>
